--- a/output/active_permit_summary_table.xlsx
+++ b/output/active_permit_summary_table.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>5749</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="5">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1533</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="6">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1346</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="7">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2172</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="11">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1410</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="12">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5111</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="16">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3992</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="18">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1754</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="19">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2202</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="20">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1756</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="21">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="22">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
@@ -884,7 +884,7 @@
         <v>2023</v>
       </c>
       <c r="C31" t="n">
-        <v>2132</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="32">
@@ -897,7 +897,7 @@
         <v>2024</v>
       </c>
       <c r="C32" t="n">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
   </sheetData>
